--- a/data/trans_orig/P14B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EC59E0-EDB3-4915-B283-A4D36558A797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA842A92-F08A-4EF1-8B1F-187145E5D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C77CEF9A-F3E0-4AB9-8950-BEE9EC0B9C96}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC4DCD4B-019D-49F4-96CC-01F4D5FC678A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="319">
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2012 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -121,19 +121,19 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>35,4%</t>
@@ -148,19 +148,19 @@
     <t>37,01%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -169,55 +169,55 @@
     <t>62,02%</t>
   </si>
   <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -226,55 +226,55 @@
     <t>67,26%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>69,38%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -283,109 +283,109 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>77,53%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -397,520 +397,532 @@
     <t>87,4%</t>
   </si>
   <si>
-    <t>46,03%</t>
+    <t>35,76%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>60,83%</t>
+    <t>55,25%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>53,97%</t>
+    <t>64,24%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>39,17%</t>
+    <t>44,75%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
     <t>57,2%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
   </si>
   <si>
     <t>27,91%</t>
@@ -1394,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DB1FEA-1798-47F0-85C1-EEAE50300977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CECA305-3D08-47FB-9525-39F8C89D0E4C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2371,7 +2383,7 @@
         <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>77290</v>
+        <v>77291</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>113</v>
@@ -2422,7 +2434,7 @@
         <v>257</v>
       </c>
       <c r="N21" s="7">
-        <v>274675</v>
+        <v>274676</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2457,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC16D38-8369-46C3-B5FC-AC41B70F9635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47216BC5-71F8-45BA-8E54-A98F83943F36}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2897,7 +2909,7 @@
         <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -2906,13 +2918,13 @@
         <v>22026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2921,13 +2933,13 @@
         <v>51781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2954,13 @@
         <v>10288</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2957,13 +2969,13 @@
         <v>12409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2972,13 +2984,13 @@
         <v>22698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,10 +3058,10 @@
         <v>26829</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3061,13 +3073,13 @@
         <v>26561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3076,13 +3088,13 @@
         <v>53390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3109,13 @@
         <v>2565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3112,13 +3124,13 @@
         <v>9251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3127,13 +3139,13 @@
         <v>11816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3213,13 @@
         <v>14087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3216,13 +3228,13 @@
         <v>33794</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3231,13 +3243,13 @@
         <v>47881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3264,13 @@
         <v>15571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3267,13 +3279,13 @@
         <v>12223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -3282,13 +3294,13 @@
         <v>27794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3368,13 @@
         <v>93253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>103</v>
@@ -3371,13 +3383,13 @@
         <v>119632</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>197</v>
@@ -3386,13 +3398,13 @@
         <v>212885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3419,13 @@
         <v>34304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -3422,13 +3434,13 @@
         <v>39896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -3437,13 +3449,13 @@
         <v>74200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EFB421-4F6C-48FD-AC40-27EFE77D4549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3E381-296C-49CD-BE88-CBC2785B4AEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3537,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,10 +3656,10 @@
         <v>6233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -3659,13 +3671,13 @@
         <v>6460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3674,13 +3686,13 @@
         <v>12694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3707,13 @@
         <v>1309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3710,13 +3722,13 @@
         <v>3509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3725,13 +3737,13 @@
         <v>4818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3811,13 @@
         <v>21276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3814,13 +3826,13 @@
         <v>17507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -3829,13 +3841,13 @@
         <v>38783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3862,13 @@
         <v>8235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -3865,13 +3877,13 @@
         <v>11198</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -3880,13 +3892,13 @@
         <v>19433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3966,13 @@
         <v>30392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -3969,13 +3981,13 @@
         <v>27309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3984,13 +3996,13 @@
         <v>57701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4017,13 @@
         <v>16870</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4020,13 +4032,13 @@
         <v>19648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -4035,13 +4047,13 @@
         <v>36518</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4121,13 @@
         <v>28626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4124,13 +4136,13 @@
         <v>14039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4139,13 +4151,13 @@
         <v>42664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4172,13 @@
         <v>17240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4175,13 +4187,13 @@
         <v>12633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4190,13 +4202,13 @@
         <v>29873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4276,13 @@
         <v>31003</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4279,13 +4291,13 @@
         <v>36749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4294,13 +4306,13 @@
         <v>67753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4327,13 @@
         <v>25556</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -4330,13 +4342,13 @@
         <v>14229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -4345,13 +4357,13 @@
         <v>39785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4431,13 @@
         <v>117531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
@@ -4434,13 +4446,13 @@
         <v>102065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>327</v>
@@ -4449,13 +4461,13 @@
         <v>219596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4482,13 @@
         <v>69210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
@@ -4485,13 +4497,13 @@
         <v>61216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -4500,13 +4512,13 @@
         <v>130426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA842A92-F08A-4EF1-8B1F-187145E5D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F31417-03EC-4AEB-91C4-EA9BCD86FDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC4DCD4B-019D-49F4-96CC-01F4D5FC678A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B25E0083-11C9-4E6A-A3C3-16AD79CC17C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="321">
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2012 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -106,175 +106,175 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>64,6%</t>
   </si>
   <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>35,4%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>69,38%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -283,403 +283,403 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>77,53%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2015 (Tasa respuesta: 4,05%)</t>
+    <t>Población cuyo trastorno cardíaco le limita en 2016 (Tasa respuesta: 4,05%)</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>35,76%</t>
+    <t>33,56%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>55,25%</t>
+    <t>53,41%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>64,24%</t>
+    <t>66,44%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>44,75%</t>
+    <t>46,59%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>63,96%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
   </si>
   <si>
     <t>36,04%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>72,47%</t>
+    <t>69,73%</t>
   </si>
   <si>
     <t>74,17%</t>
   </si>
   <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>27,53%</t>
+    <t>30,27%</t>
   </si>
   <si>
     <t>25,83%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>73,44%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>52,5%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
@@ -688,7 +688,7 @@
     <t>82,65%</t>
   </si>
   <si>
-    <t>49,11%</t>
+    <t>51,04%</t>
   </si>
   <si>
     <t>64,8%</t>
@@ -703,16 +703,16 @@
     <t>72,49%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>50,89%</t>
+    <t>48,96%</t>
   </si>
   <si>
     <t>35,2%</t>
@@ -727,274 +727,280 @@
     <t>27,51%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>64,3%</t>
   </si>
   <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>61,24%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>38,76%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>58,82%</t>
   </si>
   <si>
-    <t>69,31%</t>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>41,18%</t>
   </si>
   <si>
-    <t>30,69%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>72,09%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>45,18%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CECA305-3D08-47FB-9525-39F8C89D0E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5500044-83D0-46A7-9FC0-DCA1F6A4498D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2469,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47216BC5-71F8-45BA-8E54-A98F83943F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D97C4E-E308-45FF-ACAF-ACA88A30EE55}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3532,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3E381-296C-49CD-BE88-CBC2785B4AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC262217-4AEE-4351-A0BF-C670FADB1AE9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4154,10 +4160,10 @@
         <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4178,13 @@
         <v>17240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4187,13 +4193,13 @@
         <v>12633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4202,13 +4208,13 @@
         <v>29873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4282,13 @@
         <v>31003</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4291,13 +4297,13 @@
         <v>36749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4306,13 +4312,13 @@
         <v>67753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4333,13 @@
         <v>25556</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -4342,13 +4348,13 @@
         <v>14229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -4357,13 +4363,13 @@
         <v>39785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4437,13 @@
         <v>117531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
@@ -4446,13 +4452,13 @@
         <v>102065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>327</v>
@@ -4461,13 +4467,13 @@
         <v>219596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4488,13 @@
         <v>69210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
@@ -4497,13 +4503,13 @@
         <v>61216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -4512,13 +4518,13 @@
         <v>130426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
